--- a/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/06,12,23 КИ/дв 06,12,23 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\06,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\06,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2377B4-BADC-4273-A0B9-2746EB769CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCDDE9-D227-4F2F-9FD8-D29A02CEA4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AD$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AD$162</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -14036,7 +14036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -14055,7 +14055,7 @@
     <col min="24" max="25" width="5.1640625" style="2" customWidth="1"/>
     <col min="26" max="28" width="8.6640625" style="2" customWidth="1"/>
     <col min="29" max="29" width="19.5" style="2" customWidth="1"/>
-    <col min="30" max="32" width="8.5" style="2" customWidth="1"/>
+    <col min="30" max="32" width="6.83203125" style="2" customWidth="1"/>
     <col min="33" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="AF135" s="2">
-        <f t="shared" ref="AF135:AF162" si="34">U135*H135</f>
+        <f t="shared" ref="AF135:AF160" si="34">U135*H135</f>
         <v>0</v>
       </c>
     </row>
@@ -27532,7 +27532,6 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AG151" s="55"/>
       <c r="AH151" s="55"/>
     </row>
     <row r="152" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -28345,7 +28344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AD160" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AD162" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="S4:U4"/>
